--- a/data/trans_orig/P14B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC1F1BD-8204-465F-9E26-8555F5B247CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AED549-19D4-4381-9F7F-F1B5F8130E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D4ED5A3-92E4-4DA3-BB9B-062F6174650A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4779C24F-DDEB-44E7-80D1-7BA63EC082C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>45,7%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>56,03%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>54,3%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>40,24%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,19 +147,19 @@
     <t>66,11%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>57,52%</t>
@@ -174,19 +174,19 @@
     <t>33,89%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,10 +210,10 @@
     <t>53,59%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>0%</t>
@@ -231,64 +231,64 @@
     <t>46,41%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -303,19 +303,19 @@
     <t>25,91%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -324,73 +324,73 @@
     <t>74,09%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>38,54%</t>
@@ -420,55 +420,55 @@
     <t>49,14%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25930D28-2A37-4B77-BEEB-ED39A2B571DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C87790-DD5F-462C-A4C4-500B612E819D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C1F32-4C9E-45E6-BF8B-1B1D3C80B5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E5146C-F27C-47E4-9BB0-5BA98AE7C0B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AED549-19D4-4381-9F7F-F1B5F8130E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A1C0F4-4D14-4627-8383-D20FCDE9CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4779C24F-DDEB-44E7-80D1-7BA63EC082C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5E2074A-C823-4B11-AE6B-DE10A5A335D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>Población cuya colitis le limita en 2012 (Tasa respuesta: 1,23%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>45,7%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>56,03%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>54,3%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>40,24%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>42,48%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>66,11%</t>
   </si>
   <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -204,16 +204,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>84,73%</t>
+    <t>84,62%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>19,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -225,76 +222,73 @@
     <t>65,23%</t>
   </si>
   <si>
-    <t>15,27%</t>
+    <t>15,38%</t>
   </si>
   <si>
     <t>46,41%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>80,15%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población cuya colitis le limita en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -303,19 +297,19 @@
     <t>25,91%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -324,73 +318,73 @@
     <t>74,09%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>38,54%</t>
@@ -402,7 +396,7 @@
     <t>37,43%</t>
   </si>
   <si>
-    <t>86,72%</t>
+    <t>79,8%</t>
   </si>
   <si>
     <t>61,46%</t>
@@ -414,61 +408,61 @@
     <t>62,57%</t>
   </si>
   <si>
-    <t>13,28%</t>
+    <t>20,2%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
 </sst>
 </file>
@@ -880,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C87790-DD5F-462C-A4C4-500B612E819D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1381663D-34DF-4373-A5B3-870023089F13}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1350,7 +1344,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1368,10 +1362,10 @@
         <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1380,10 +1374,10 @@
         <v>4761</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>51</v>
@@ -1395,13 +1389,13 @@
         <v>4761</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1463,13 @@
         <v>14297</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1484,13 +1478,13 @@
         <v>35644</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -1499,13 +1493,13 @@
         <v>49941</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,13 +1514,13 @@
         <v>14468</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -1535,13 +1529,13 @@
         <v>24817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -1550,13 +1544,13 @@
         <v>39285</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,7 +1606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E5146C-F27C-47E4-9BB0-5BA98AE7C0B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BAE757-7C39-4D71-AF3B-5E421F7562B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1648,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1758,7 +1752,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -1770,13 +1764,13 @@
         <v>6701</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1785,13 +1779,13 @@
         <v>8834</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,10 +1803,10 @@
         <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -1821,13 +1815,13 @@
         <v>19165</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -1836,13 +1830,13 @@
         <v>19165</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1904,13 @@
         <v>7986</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -1925,13 +1919,13 @@
         <v>13299</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -1940,13 +1934,13 @@
         <v>21284</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1955,13 @@
         <v>9495</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -1976,13 +1970,13 @@
         <v>13336</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -1991,13 +1985,13 @@
         <v>22831</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2059,7 @@
         <v>1745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>54</v>
@@ -2080,7 +2074,7 @@
         <v>1159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>54</v>
@@ -2095,13 +2089,13 @@
         <v>2904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,7 +2110,7 @@
         <v>2781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>54</v>
@@ -2131,7 +2125,7 @@
         <v>2072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>54</v>
@@ -2146,10 +2140,10 @@
         <v>4854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -2220,13 +2214,13 @@
         <v>11863</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2235,13 +2229,13 @@
         <v>21158</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -2250,13 +2244,13 @@
         <v>33021</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2265,13 @@
         <v>12277</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -2286,13 +2280,13 @@
         <v>34574</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2301,13 +2295,13 @@
         <v>46851</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2357,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
